--- a/lci-Salar-de-Arizaro.xlsx
+++ b/lci-Salar-de-Arizaro.xlsx
@@ -1955,7 +1955,7 @@
         <v>34</v>
       </c>
       <c r="B130">
-        <v>-0.213446131120675</v>
+        <v>-0.02134461311206751</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
@@ -2504,7 +2504,7 @@
         <v>59</v>
       </c>
       <c r="B178">
-        <v>0.008999999999999999</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="C178" t="s">
         <v>40</v>
@@ -3087,7 +3087,7 @@
         <v>67</v>
       </c>
       <c r="B228">
-        <v>0.0625</v>
+        <v>0.0125</v>
       </c>
       <c r="C228" t="s">
         <v>40</v>
